--- a/biology/Zoologie/Cymothoidae/Cymothoidae.xlsx
+++ b/biology/Zoologie/Cymothoidae/Cymothoidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cymothoidae sont une famille de crustacés isopodes, c'est-à-dire proches des cloportes. Tous sont parasites externes d'animaux aquatiques, surtout de poissons marins, comme Cymothoa exigua. Ils sont fréquemment connus sous le nom de poux de mer.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains cymothoidés comptent parmi les plus grandes espèces d'isopodes, pouvant atteindre 75 mm de long. Le corps est légèrement asymétrique, probablement en relation avec la position sur l'hôte en cours de croissance. Les pièces buccales sont modifiées en raison du mode de vie parasitaire. Tous (sauf une espèce[Laquelle ?]) possèdent sept paires de pattes préhensiles[réf. nécessaire].
 </t>
@@ -542,11 +556,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille, l'une des deux plus grandes des isopodes, comporte 325 espèces environ regroupées en 42 genres[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille, l'une des deux plus grandes des isopodes, comporte 325 espèces environ regroupées en 42 genres,.
 William Elford Leach a formé plusieurs noms de genres, comme Anilocra, Nerocila ou Olencira sur des anagrammes de Carolina ou Caroline, le prénom de son épouse. Cette tradition a été perpétuée par d'autres auteurs.
-Selon World Register of Marine Species                               (27 juin 2021)[5] :
+Selon World Register of Marine Species                               (27 juin 2021) :
 Aegathoa Dana, 1853
 Agarna Schioedte &amp; Meinert, 1884
 Amblycephalon Pillai, 1954
